--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\truta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE08861-7F97-469A-AA00-E810BD5A1CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD938A1-BE00-416B-B036-2F5DBB863A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BADED603-9623-4666-A19D-FCC52A5C03B1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>Cliente</t>
   </si>
@@ -152,6 +152,237 @@
   <si>
     <t>{date}</t>
   </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>#20</t>
+  </si>
+  <si>
+    <t>{article[0]['total']}</t>
+  </si>
+  <si>
+    <t>{article[6]['description']}</t>
+  </si>
+  <si>
+    <t>{article[7]['description']}</t>
+  </si>
+  <si>
+    <t>{article[8]['description']}</t>
+  </si>
+  <si>
+    <t>{article[9]['description']}</t>
+  </si>
+  <si>
+    <t>{article[10]['description']}</t>
+  </si>
+  <si>
+    <t>{article[11]['description']}</t>
+  </si>
+  <si>
+    <t>{article[12]['description']}</t>
+  </si>
+  <si>
+    <t>{article[13]['description']}</t>
+  </si>
+  <si>
+    <t>{article[14]['description']}</t>
+  </si>
+  <si>
+    <t>{article[15]['description']}</t>
+  </si>
+  <si>
+    <t>{article[16]['description']}</t>
+  </si>
+  <si>
+    <t>{article[17]['description']}</t>
+  </si>
+  <si>
+    <t>{article[18]['description']}</t>
+  </si>
+  <si>
+    <t>{article[19]['description']}</t>
+  </si>
+  <si>
+    <t>{article[6]['price']}</t>
+  </si>
+  <si>
+    <t>{article[7]['price']}</t>
+  </si>
+  <si>
+    <t>{article[8]['price']}</t>
+  </si>
+  <si>
+    <t>{article[9]['price']}</t>
+  </si>
+  <si>
+    <t>{article[10]['price']}</t>
+  </si>
+  <si>
+    <t>{article[11]['price']}</t>
+  </si>
+  <si>
+    <t>{article[12]['price']}</t>
+  </si>
+  <si>
+    <t>{article[13]['price']}</t>
+  </si>
+  <si>
+    <t>{article[14]['price']}</t>
+  </si>
+  <si>
+    <t>{article[15]['price']}</t>
+  </si>
+  <si>
+    <t>{article[16]['price']}</t>
+  </si>
+  <si>
+    <t>{article[17]['price']}</t>
+  </si>
+  <si>
+    <t>{article[18]['price']}</t>
+  </si>
+  <si>
+    <t>{article[19]['price']}</t>
+  </si>
+  <si>
+    <t>{article[6]['count']}</t>
+  </si>
+  <si>
+    <t>{article[7]['count']}</t>
+  </si>
+  <si>
+    <t>{article[8]['count']}</t>
+  </si>
+  <si>
+    <t>{article[9]['count']}</t>
+  </si>
+  <si>
+    <t>{article[10]['count']}</t>
+  </si>
+  <si>
+    <t>{article[11]['count']}</t>
+  </si>
+  <si>
+    <t>{article[12]['count']}</t>
+  </si>
+  <si>
+    <t>{article[13]['count']}</t>
+  </si>
+  <si>
+    <t>{article[14]['count']}</t>
+  </si>
+  <si>
+    <t>{article[15]['count']}</t>
+  </si>
+  <si>
+    <t>{article[16]['count']}</t>
+  </si>
+  <si>
+    <t>{article[17]['count']}</t>
+  </si>
+  <si>
+    <t>{article[18]['count']}</t>
+  </si>
+  <si>
+    <t>{article[19]['count']}</t>
+  </si>
+  <si>
+    <t>{article[1]['total']}</t>
+  </si>
+  <si>
+    <t>{article[2]['total']}</t>
+  </si>
+  <si>
+    <t>{article[3]['total']}</t>
+  </si>
+  <si>
+    <t>{article[4]['total']}</t>
+  </si>
+  <si>
+    <t>{article[5]['total']}</t>
+  </si>
+  <si>
+    <t>{article[6]['total']}</t>
+  </si>
+  <si>
+    <t>{article[7]['total']}</t>
+  </si>
+  <si>
+    <t>{article[8]['total']}</t>
+  </si>
+  <si>
+    <t>{article[9]['total']}</t>
+  </si>
+  <si>
+    <t>{article[10]['total']}</t>
+  </si>
+  <si>
+    <t>{article[11]['total']}</t>
+  </si>
+  <si>
+    <t>{article[12]['total']}</t>
+  </si>
+  <si>
+    <t>{article[13]['total']}</t>
+  </si>
+  <si>
+    <t>{article[14]['total']}</t>
+  </si>
+  <si>
+    <t>{article[15]['total']}</t>
+  </si>
+  <si>
+    <t>{article[16]['total']}</t>
+  </si>
+  <si>
+    <t>{article[17]['total']}</t>
+  </si>
+  <si>
+    <t>{article[18]['total']}</t>
+  </si>
+  <si>
+    <t>{article[19]['total']}</t>
+  </si>
+  <si>
+    <t>{totalPrice}</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +391,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +403,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,7 +443,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F5E591-987D-4843-8CCC-1289207AB41E}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,40 +784,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -596,131 +836,380 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4">
-        <v>90</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="4">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="F9" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="F17" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="4">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="4">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="4">
-        <v>1415</v>
+      <c r="F29" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -730,6 +1219,7 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>